--- a/vocabulary/vocabularies.xlsx
+++ b/vocabulary/vocabularies.xlsx
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
   <si>
     <t>Vocabulary</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>An intergrade of non-hybrid nature</t>
+  </si>
+  <si>
+    <t>growingOn</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -712,6 +715,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -993,11 +1044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1025"/>
+  <dimension ref="A1:E1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1033,11 +1084,11 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1047,17 +1098,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1067,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1077,7 +1128,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1087,17 +1138,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1107,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1117,17 +1168,17 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1137,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1147,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1157,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1167,33 +1218,31 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,11 +1250,11 @@
         <v>23</v>
       </c>
       <c r="B19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,11 +1262,11 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,23 +1274,23 @@
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,11 +1298,11 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1261,11 +1310,11 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,11 +1322,11 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,11 +1334,11 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,11 +1346,11 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,29 +1358,31 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1341,17 +1392,17 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1361,7 +1412,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1371,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1381,7 +1432,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1391,28 +1442,28 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1422,17 +1473,17 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1442,17 +1493,17 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1462,7 +1513,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1472,33 +1523,31 @@
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1506,11 +1555,11 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1518,11 +1567,11 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1530,11 +1579,11 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1542,11 +1591,11 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1554,11 +1603,11 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1566,11 +1615,11 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1578,11 +1627,11 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1590,11 +1639,11 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1602,11 +1651,11 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1614,11 +1663,11 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1626,11 +1675,11 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>168</v>
+      <c r="D57" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1638,11 +1687,11 @@
         <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="6" t="s">
-        <v>161</v>
+      <c r="D58" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1650,11 +1699,11 @@
         <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1662,11 +1711,11 @@
         <v>63</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>167</v>
+      <c r="D60" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1674,11 +1723,11 @@
         <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="6" t="s">
-        <v>163</v>
+      <c r="D61" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1686,11 +1735,11 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1698,11 +1747,11 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1710,53 +1759,51 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1764,31 +1811,35 @@
         <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1798,7 +1849,7 @@
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1808,7 +1859,7 @@
         <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1818,7 +1869,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1828,7 +1879,7 @@
         <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1838,7 +1889,7 @@
         <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1848,7 +1899,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1858,7 +1909,7 @@
         <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1868,7 +1919,7 @@
         <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1878,7 +1929,7 @@
         <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1888,7 +1939,7 @@
         <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1898,7 +1949,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1908,7 +1959,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1918,7 +1969,7 @@
         <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1928,17 +1979,17 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1948,7 +1999,7 @@
         <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1958,7 +2009,7 @@
         <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1968,7 +2019,7 @@
         <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1978,7 +2029,7 @@
         <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -1988,7 +2039,7 @@
         <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1998,7 +2049,7 @@
         <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2008,7 +2059,7 @@
         <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2018,7 +2069,7 @@
         <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2028,7 +2079,7 @@
         <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -2038,7 +2089,7 @@
         <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2048,7 +2099,7 @@
         <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2058,7 +2109,7 @@
         <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2068,17 +2119,17 @@
         <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -2088,7 +2139,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -2098,17 +2149,17 @@
         <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -2118,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -2128,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -2138,17 +2189,17 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -2158,7 +2209,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -2168,7 +2219,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -2178,7 +2229,7 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -2188,7 +2239,7 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -2198,7 +2249,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -2208,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -2218,7 +2269,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -2228,7 +2279,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -2238,7 +2289,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -2248,7 +2299,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -2258,7 +2309,7 @@
         <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2268,25 +2319,27 @@
         <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="A119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2294,7 +2347,7 @@
         <v>142</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2302,49 +2355,46 @@
         <v>142</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="B123" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="A125" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2352,11 +2402,10 @@
         <v>169</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="3"/>
+        <v>91</v>
+      </c>
       <c r="D127" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2364,30 +2413,36 @@
         <v>169</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>177</v>
+      <c r="B129" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
@@ -7758,6 +7813,12 @@
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
       <c r="D1025" s="3"/>
+    </row>
+    <row r="1026" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3"/>
+      <c r="B1026" s="3"/>
+      <c r="C1026" s="3"/>
+      <c r="D1026" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
